--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P19_trail1 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P19_trail1 Features.xlsx
@@ -3523,7 +3523,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.440011272043521</v>
+        <v>1.476879925395131</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.764262273189259</v>
@@ -3612,7 +3612,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.474015250672104</v>
+        <v>1.507340554062893</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.406800010335147</v>
@@ -3701,7 +3701,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.470260947877739</v>
+        <v>1.508173517990556</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.909147778144283</v>
@@ -3790,7 +3790,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.458774825266214</v>
+        <v>1.495538583485854</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.535590797465379</v>
@@ -3879,7 +3879,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.45150586473303</v>
+        <v>1.485691108181252</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.577701931195995</v>
@@ -3968,7 +3968,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.464717039052598</v>
+        <v>1.499431860353599</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.686627272196498</v>
@@ -4057,7 +4057,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.461950193468067</v>
+        <v>1.496421733053294</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.546602205335946</v>
@@ -4146,7 +4146,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.459789865527891</v>
+        <v>1.493773204326609</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.721313873348685</v>
@@ -4235,7 +4235,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.44069164898776</v>
+        <v>1.471003417532587</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.752522818467388</v>
@@ -4324,7 +4324,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.443805925352081</v>
+        <v>1.469391873168815</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.545171436511411</v>
@@ -4413,7 +4413,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.465769944559522</v>
+        <v>1.497177756015269</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.674122385515673</v>
@@ -4502,7 +4502,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.464590910140738</v>
+        <v>1.496151059388483</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.813405178002888</v>
@@ -4591,7 +4591,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.437111578318155</v>
+        <v>1.465813873422397</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.876794384850704</v>
@@ -4680,7 +4680,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.426169909319318</v>
+        <v>1.456446135842381</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.556116065294013</v>
@@ -4769,7 +4769,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.449611724888838</v>
+        <v>1.477829631377439</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.716389184551544</v>
@@ -4858,7 +4858,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.438038714347819</v>
+        <v>1.46408588703192</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.524608460988572</v>
@@ -4947,7 +4947,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.436921442339275</v>
+        <v>1.46753268879617</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.797676405456655</v>
@@ -5036,7 +5036,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.456940208119495</v>
+        <v>1.488148937236327</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.875014833768414</v>
@@ -5125,7 +5125,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.457569571151418</v>
+        <v>1.489646052752516</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.381803686112889</v>
@@ -5214,7 +5214,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.458815440760804</v>
+        <v>1.493258136984643</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.662686432406651</v>
@@ -5303,7 +5303,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.434749939927956</v>
+        <v>1.469908016691333</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.709006359480305</v>
@@ -5392,7 +5392,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.442258726303027</v>
+        <v>1.478612505228629</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.860318112375715</v>
@@ -5481,7 +5481,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.458367182749791</v>
+        <v>1.497052925502705</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.654404961109515</v>
@@ -5570,7 +5570,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.464595190432395</v>
+        <v>1.507786220292819</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.633206311578607</v>
@@ -5659,7 +5659,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.453256270145502</v>
+        <v>1.493930599399156</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.544414963649431</v>
@@ -5748,7 +5748,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.43794445665602</v>
+        <v>1.480333997468133</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.840990556134402</v>
@@ -5837,7 +5837,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.452582777563958</v>
+        <v>1.496659017834141</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.72332430120766</v>
@@ -5926,7 +5926,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.487192370963192</v>
+        <v>1.535308774090471</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.715579377875961</v>
@@ -6015,7 +6015,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.510594765609076</v>
+        <v>1.557371224337349</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.760571674824655</v>
@@ -6104,7 +6104,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.518882309134265</v>
+        <v>1.567226285136921</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.785771010076643</v>
@@ -6193,7 +6193,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.563677732528686</v>
+        <v>1.611934425345175</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.393514139213444</v>
@@ -6282,7 +6282,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.590284136713219</v>
+        <v>1.639848884581834</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.866320982404035</v>
@@ -6371,7 +6371,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.588703943781969</v>
+        <v>1.63975092835388</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.907673467156334</v>
@@ -6460,7 +6460,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.631268395009232</v>
+        <v>1.684148402415436</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.71624904176882</v>
@@ -6549,7 +6549,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.669701523624037</v>
+        <v>1.718191312246756</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.616932888552823</v>
@@ -6638,7 +6638,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.719162600652031</v>
+        <v>1.767786189666694</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.818664045424093</v>
@@ -6727,7 +6727,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.697281971928736</v>
+        <v>1.748637810820211</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.810083221864256</v>
@@ -6816,7 +6816,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.697308707104411</v>
+        <v>1.746043420987994</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.766223056777249</v>
@@ -6905,7 +6905,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.724687031254477</v>
+        <v>1.768659348362631</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.531057332936882</v>
@@ -6994,7 +6994,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.776264649840545</v>
+        <v>1.811493978552259</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.399341388813172</v>
@@ -7083,7 +7083,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.753356752613205</v>
+        <v>1.789707518284597</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.728508633277643</v>
@@ -7172,7 +7172,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.747313680335726</v>
+        <v>1.783486257793731</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.749344047378862</v>
@@ -7458,7 +7458,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.366697575920741</v>
+        <v>1.354946111669251</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.58310635459546</v>
@@ -7547,7 +7547,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.390689005414982</v>
+        <v>1.378242432150772</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.128513966246746</v>
@@ -7636,7 +7636,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.382250763253917</v>
+        <v>1.38062065191541</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.451385312967274</v>
@@ -7725,7 +7725,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.373493792118215</v>
+        <v>1.371201558610126</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.357820331048269</v>
@@ -7814,7 +7814,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.360738829087336</v>
+        <v>1.351684186089809</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.504162550251315</v>
@@ -7903,7 +7903,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.352229317142836</v>
+        <v>1.348201227910024</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.667569859483952</v>
@@ -7992,7 +7992,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.338385438282631</v>
+        <v>1.335454732348408</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.248601974089084</v>
@@ -8081,7 +8081,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.334583904972243</v>
+        <v>1.331307180624648</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.35725655170053</v>
@@ -8170,7 +8170,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.320951248728875</v>
+        <v>1.317263642093105</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.198422914971375</v>
@@ -8259,7 +8259,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.324831052586511</v>
+        <v>1.318283941101865</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.270493350886738</v>
@@ -8348,7 +8348,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.340351325575472</v>
+        <v>1.33765374136506</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.313556401107166</v>
@@ -8437,7 +8437,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.32835417682285</v>
+        <v>1.323262287923584</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.344877930565767</v>
@@ -8526,7 +8526,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.321651060284144</v>
+        <v>1.314290415405716</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.404223543888924</v>
@@ -8615,7 +8615,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.315160357429782</v>
+        <v>1.30580275813665</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.234360104600495</v>
@@ -8704,7 +8704,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.327826928899097</v>
+        <v>1.318224581368356</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.282029487340573</v>
@@ -8793,7 +8793,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.325257487264186</v>
+        <v>1.313296294917437</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.206265638902028</v>
@@ -8882,7 +8882,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.327442743379131</v>
+        <v>1.316222716385989</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.33422623925073</v>
@@ -8971,7 +8971,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.337931959029459</v>
+        <v>1.325585301730371</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.405251107004649</v>
@@ -9060,7 +9060,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.339594414698119</v>
+        <v>1.327413638650382</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.416013429731206</v>
@@ -9149,7 +9149,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.344852811991476</v>
+        <v>1.332958311494816</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.4384506204319</v>
@@ -9238,7 +9238,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.352020938229579</v>
+        <v>1.339098023907178</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.293363204444142</v>
@@ -9327,7 +9327,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.349136549318503</v>
+        <v>1.337723280792046</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.422280796579072</v>
@@ -9416,7 +9416,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.354821994166493</v>
+        <v>1.347194968583236</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.37012563366054</v>
@@ -9505,7 +9505,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.363871226607855</v>
+        <v>1.351386566964331</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.312682360196497</v>
@@ -9594,7 +9594,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.360076453642624</v>
+        <v>1.350501293736098</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.352570504571144</v>
@@ -9683,7 +9683,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.348071326607803</v>
+        <v>1.339522755590593</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.412376652160992</v>
@@ -9772,7 +9772,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.365972499063021</v>
+        <v>1.358845480507874</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.521865263157991</v>
@@ -9861,7 +9861,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.382469605710211</v>
+        <v>1.38015074596176</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.398128680128382</v>
@@ -9950,7 +9950,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.399880027662816</v>
+        <v>1.401733725154683</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.488212890439709</v>
@@ -10039,7 +10039,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.409573449542988</v>
+        <v>1.413129880097111</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.499579759950101</v>
@@ -10128,7 +10128,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.430104424769888</v>
+        <v>1.435302758867793</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.36279689521304</v>
@@ -10217,7 +10217,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.444923843904029</v>
+        <v>1.451944759960529</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.478945441986978</v>
@@ -10306,7 +10306,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.446450639313795</v>
+        <v>1.453336481920578</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.387108580151136</v>
@@ -10395,7 +10395,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.471499386559644</v>
+        <v>1.479354721937873</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.373586521969382</v>
@@ -10484,7 +10484,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.497481801153256</v>
+        <v>1.505653374920196</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.390766997229008</v>
@@ -10573,7 +10573,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.513214253143149</v>
+        <v>1.523921772438855</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.247820670035415</v>
@@ -10662,7 +10662,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.557401336651058</v>
+        <v>1.567282118560728</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.778285853500132</v>
@@ -10751,7 +10751,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.56132833250682</v>
+        <v>1.568573457475328</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.84014449186596</v>
@@ -10840,7 +10840,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.577024772649998</v>
+        <v>1.588325590407324</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.405022053676485</v>
@@ -10929,7 +10929,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.615591042891785</v>
+        <v>1.618706767743832</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.337771867028344</v>
@@ -11018,7 +11018,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.600625771579172</v>
+        <v>1.604759484215199</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.77035514375302</v>
@@ -11107,7 +11107,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.589378253459262</v>
+        <v>1.600853956917641</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.701225733377593</v>
@@ -11393,7 +11393,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.664211330361395</v>
+        <v>1.688173769669698</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.666832365014484</v>
@@ -11482,7 +11482,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.724382158629345</v>
+        <v>1.737869256062202</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.117676326823343</v>
@@ -11571,7 +11571,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.731639030832928</v>
+        <v>1.749079931025579</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.936064019861021</v>
@@ -11660,7 +11660,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.677691480526488</v>
+        <v>1.698608315557925</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.406890939758792</v>
@@ -11749,7 +11749,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.601726675630616</v>
+        <v>1.627239122796967</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.232504107844592</v>
@@ -11838,7 +11838,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.614664243036055</v>
+        <v>1.639310671864209</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.178920255495941</v>
@@ -11927,7 +11927,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.616045682622845</v>
+        <v>1.638623238376868</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.25251667720393</v>
@@ -12016,7 +12016,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.609730110468571</v>
+        <v>1.629061730625728</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.174865924034136</v>
@@ -12105,7 +12105,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.603180708267516</v>
+        <v>1.620310936745663</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.226891941791612</v>
@@ -12194,7 +12194,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.599698416378076</v>
+        <v>1.612706680798998</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.2015757251255</v>
@@ -12283,7 +12283,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.605966151898825</v>
+        <v>1.616918652360709</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.184828829094312</v>
@@ -12372,7 +12372,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.605639321861112</v>
+        <v>1.61737530791118</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.204065840399744</v>
@@ -12461,7 +12461,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.593413189844604</v>
+        <v>1.604815593675419</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.226500524951203</v>
@@ -12550,7 +12550,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.590098995681349</v>
+        <v>1.601323774177251</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.216354432503145</v>
@@ -12639,7 +12639,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.598163575416518</v>
+        <v>1.609331486893249</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.218314841783305</v>
@@ -12728,7 +12728,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.59654286296666</v>
+        <v>1.607541561501114</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.238753509347676</v>
@@ -12817,7 +12817,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.597549950970377</v>
+        <v>1.610280696045116</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.171081699467142</v>
@@ -12906,7 +12906,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.602799274782692</v>
+        <v>1.613430351818432</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.264706220111908</v>
@@ -12995,7 +12995,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.65076669362701</v>
+        <v>1.656023604589202</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.080647683297157</v>
@@ -13084,7 +13084,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.745256590008476</v>
+        <v>1.740056724522056</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.840926267800336</v>
@@ -13173,7 +13173,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.742282091028073</v>
+        <v>1.736741999050352</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.603587571151516</v>
@@ -13262,7 +13262,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.741520821865595</v>
+        <v>1.735281079443393</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.982751973480525</v>
@@ -13351,7 +13351,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.749431146686271</v>
+        <v>1.74394442107124</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.895695667519447</v>
@@ -13440,7 +13440,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.753666600262573</v>
+        <v>1.751120014998211</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.714373922534139</v>
@@ -13529,7 +13529,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.757105926179812</v>
+        <v>1.753113736871713</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.8296838397732</v>
@@ -13618,7 +13618,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.754019223483344</v>
+        <v>1.755694762189553</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.617796753336249</v>
@@ -13707,7 +13707,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.760020561499167</v>
+        <v>1.759693778471711</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.486925388415096</v>
@@ -13796,7 +13796,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.775874261367101</v>
+        <v>1.77263098230217</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.845651039248746</v>
@@ -13885,7 +13885,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.786633576307405</v>
+        <v>1.784131639231294</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.220379387847636</v>
@@ -13974,7 +13974,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.792910206182111</v>
+        <v>1.790098761812604</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.834939458188273</v>
@@ -14063,7 +14063,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.807716420224836</v>
+        <v>1.800651787713407</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.583368234160416</v>
@@ -14152,7 +14152,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.813850406856959</v>
+        <v>1.802406249412851</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.606674046759933</v>
@@ -14241,7 +14241,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.811928928509918</v>
+        <v>1.800607106646411</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.84547837089519</v>
@@ -14330,7 +14330,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.829051762562868</v>
+        <v>1.817220004861872</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.536753775615294</v>
@@ -14419,7 +14419,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.835021699004542</v>
+        <v>1.826577033257119</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.431948386569887</v>
@@ -14508,7 +14508,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.839283330081318</v>
+        <v>1.829555132440774</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.435564679345046</v>
@@ -14597,7 +14597,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.842722912401785</v>
+        <v>1.838369200026238</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.99203450783829</v>
@@ -14686,7 +14686,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.840679788118187</v>
+        <v>1.8351294686355</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.768021551546805</v>
@@ -14775,7 +14775,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.848803837017444</v>
+        <v>1.842621321256439</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.672747397287634</v>
@@ -14864,7 +14864,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.861823855484682</v>
+        <v>1.858257604870676</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.405309112072364</v>
@@ -14953,7 +14953,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.853538406416533</v>
+        <v>1.849454013871298</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.84377506893142</v>
@@ -15042,7 +15042,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.855918842361448</v>
+        <v>1.850570344222977</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.520182575417733</v>
@@ -15328,7 +15328,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.761378905368156</v>
+        <v>1.74981021209962</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>4.146925759496511</v>
@@ -15417,7 +15417,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.777049544880136</v>
+        <v>1.757794895312592</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>4.099982215647872</v>
@@ -15506,7 +15506,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.779386922169313</v>
+        <v>1.762381189076707</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.962115946423719</v>
@@ -15595,7 +15595,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.76607811568533</v>
+        <v>1.745995304751803</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.977059363865338</v>
@@ -15684,7 +15684,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.764775649577733</v>
+        <v>1.743361478726355</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.49747629897038</v>
@@ -15773,7 +15773,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.751949159219903</v>
+        <v>1.732261271401065</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.782291892171902</v>
@@ -15862,7 +15862,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.761883619296477</v>
+        <v>1.736100082574302</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.696570907572481</v>
@@ -15951,7 +15951,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.762388033476479</v>
+        <v>1.728858977003039</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.798486959265751</v>
@@ -16040,7 +16040,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.755339554265993</v>
+        <v>1.713859701305487</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.959698863260147</v>
@@ -16129,7 +16129,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.739635536136406</v>
+        <v>1.700428291067688</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.243039982134624</v>
@@ -16218,7 +16218,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.734404380592312</v>
+        <v>1.702656588956531</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.739876129980677</v>
@@ -16307,7 +16307,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.73670347830359</v>
+        <v>1.706199706852551</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.383253027024603</v>
@@ -16396,7 +16396,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.731328543616047</v>
+        <v>1.697217436279954</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.513413490263494</v>
@@ -16485,7 +16485,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.732039615124227</v>
+        <v>1.699816559696985</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.578898488373029</v>
@@ -16574,7 +16574,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.741996283662011</v>
+        <v>1.712227687903489</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.906181648059521</v>
@@ -16663,7 +16663,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.727325673589196</v>
+        <v>1.694658829277494</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.938857497255704</v>
@@ -16752,7 +16752,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.721365774441845</v>
+        <v>1.689632856529268</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.537471594325056</v>
@@ -16841,7 +16841,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.734467385509768</v>
+        <v>1.696694205263684</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>4.093886512415466</v>
@@ -16930,7 +16930,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.734412319233906</v>
+        <v>1.695666863900437</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.46469514420929</v>
@@ -17019,7 +17019,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.740219294590446</v>
+        <v>1.700036294982989</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.59761900374714</v>
@@ -17108,7 +17108,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.740626756591222</v>
+        <v>1.701829259491387</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.46770954187775</v>
@@ -17197,7 +17197,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.732697068180409</v>
+        <v>1.697745761937522</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.563959761362906</v>
@@ -17286,7 +17286,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.739951092207988</v>
+        <v>1.71034366442007</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.908145678249163</v>
@@ -17375,7 +17375,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.745234976984511</v>
+        <v>1.71982681074255</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.440489785568335</v>
@@ -17464,7 +17464,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.755249924888653</v>
+        <v>1.726471283744136</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.394781970370604</v>
@@ -17553,7 +17553,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.752963496013013</v>
+        <v>1.721599849949661</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.353765758517572</v>
@@ -17642,7 +17642,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.759069119547052</v>
+        <v>1.725064769175196</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.154285377109786</v>
@@ -17731,7 +17731,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.762269458270873</v>
+        <v>1.734761298058889</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.420776274057851</v>
@@ -17820,7 +17820,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.768350839904016</v>
+        <v>1.745497903726327</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.391829496526718</v>
@@ -17909,7 +17909,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.767641105673206</v>
+        <v>1.748882121918715</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.607729824722647</v>
@@ -17998,7 +17998,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.771256086664289</v>
+        <v>1.754035574198842</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.946945994643729</v>
@@ -18087,7 +18087,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.787367874546698</v>
+        <v>1.773595445274219</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.562202107281699</v>
@@ -18176,7 +18176,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.78471299018311</v>
+        <v>1.782244563398124</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.773609198597839</v>
@@ -18265,7 +18265,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.800291050827847</v>
+        <v>1.805331898611591</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.946076398997071</v>
@@ -18354,7 +18354,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.807108089605041</v>
+        <v>1.812241950863717</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.759301772919866</v>
@@ -18443,7 +18443,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.823815148029453</v>
+        <v>1.827420271249753</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.726887944045568</v>
@@ -18532,7 +18532,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.825855267710194</v>
+        <v>1.831721912993147</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.886922874229768</v>
@@ -18621,7 +18621,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.830428000055774</v>
+        <v>1.83947750715603</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>4.418320575026242</v>
@@ -18710,7 +18710,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.835469359052743</v>
+        <v>1.84759665196517</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.909973956456199</v>
@@ -18799,7 +18799,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.830373643270077</v>
+        <v>1.844778239843737</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>4.134692180550648</v>
@@ -18888,7 +18888,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.827667664969948</v>
+        <v>1.839156786172687</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>4.053688333503607</v>
@@ -18977,7 +18977,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.836320707919956</v>
+        <v>1.846580021611994</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>4.831733749537352</v>
@@ -19263,7 +19263,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.581792925306287</v>
+        <v>1.54774529695955</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.073153463185772</v>
@@ -19352,7 +19352,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.581568068572431</v>
+        <v>1.54278942301624</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.658927874228406</v>
@@ -19441,7 +19441,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.601279375487959</v>
+        <v>1.565592395193281</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.690957154254871</v>
@@ -19530,7 +19530,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.59256933424435</v>
+        <v>1.558719018509611</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.111389221530062</v>
@@ -19619,7 +19619,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.593936946137287</v>
+        <v>1.554613275308817</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.817247588374618</v>
@@ -19708,7 +19708,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.582547468800489</v>
+        <v>1.548680150349085</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.708731505166699</v>
@@ -19797,7 +19797,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.577810404300647</v>
+        <v>1.53730741536121</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.914358273654838</v>
@@ -19886,7 +19886,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.573698123569481</v>
+        <v>1.533646417643396</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.00583910250231</v>
@@ -19975,7 +19975,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.563482583221928</v>
+        <v>1.527581541077623</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.879450133142439</v>
@@ -20064,7 +20064,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.550738035770008</v>
+        <v>1.516784104411147</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.928381359001374</v>
@@ -20153,7 +20153,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.560670288652042</v>
+        <v>1.522132296091651</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.933518137348272</v>
@@ -20242,7 +20242,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.551188332685604</v>
+        <v>1.512453596622148</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.840583872237799</v>
@@ -20331,7 +20331,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.542846849921488</v>
+        <v>1.503530326420584</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.954940022029952</v>
@@ -20420,7 +20420,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.542954634454743</v>
+        <v>1.50382426699272</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.946530946078115</v>
@@ -20509,7 +20509,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.540742156726107</v>
+        <v>1.499190954341435</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.793261261955219</v>
@@ -20598,7 +20598,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.525140949156355</v>
+        <v>1.483634868215553</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.765141846825529</v>
@@ -20687,7 +20687,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.523024889480311</v>
+        <v>1.483816316630713</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.671653787825012</v>
@@ -20776,7 +20776,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.529005604821971</v>
+        <v>1.487435158015483</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.769205460376768</v>
@@ -20865,7 +20865,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.536446874099834</v>
+        <v>1.494002944690648</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.818920896166706</v>
@@ -20954,7 +20954,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.552526960924019</v>
+        <v>1.507593433481055</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.63232876609714</v>
@@ -21043,7 +21043,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.556921014048168</v>
+        <v>1.516207470892665</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.822856836245345</v>
@@ -21132,7 +21132,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.539116061298426</v>
+        <v>1.508155869933904</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.720488071535803</v>
@@ -21221,7 +21221,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.5364098363108</v>
+        <v>1.503669247121862</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.71819955285743</v>
@@ -21310,7 +21310,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.538896984608086</v>
+        <v>1.502007960953485</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.496432112617069</v>
@@ -21399,7 +21399,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.531027658342978</v>
+        <v>1.496115456511679</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.74039871167997</v>
@@ -21488,7 +21488,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.52256360067145</v>
+        <v>1.489611564006914</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.797486583504293</v>
@@ -21577,7 +21577,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.529621766700565</v>
+        <v>1.496119073228857</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.689016744039046</v>
@@ -21666,7 +21666,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.53849660613259</v>
+        <v>1.510541071102678</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.567602084432291</v>
@@ -21755,7 +21755,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.546355268972218</v>
+        <v>1.51901852430502</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.869356877402096</v>
@@ -21844,7 +21844,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.556770673149682</v>
+        <v>1.530895069493709</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.666188263863982</v>
@@ -21933,7 +21933,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.57097241951537</v>
+        <v>1.55198389418073</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.868443520230603</v>
@@ -22022,7 +22022,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.582424251223511</v>
+        <v>1.560245633323193</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.659561145363877</v>
@@ -22111,7 +22111,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.580028585989038</v>
+        <v>1.564687119788744</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.618290877141876</v>
@@ -22200,7 +22200,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.589044618836723</v>
+        <v>1.575452355546632</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.762012420223576</v>
@@ -22289,7 +22289,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.592547945758025</v>
+        <v>1.579506930921596</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.629611240337737</v>
@@ -22378,7 +22378,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.576740878370637</v>
+        <v>1.563243784354541</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.598245018942035</v>
@@ -22467,7 +22467,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.608874543775063</v>
+        <v>1.590524409729181</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.104033605998409</v>
@@ -22556,7 +22556,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.624084791571792</v>
+        <v>1.59745366658108</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.893034880385887</v>
@@ -22645,7 +22645,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.638593428556302</v>
+        <v>1.607829928283352</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.89080513318019</v>
@@ -22734,7 +22734,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.650972355267103</v>
+        <v>1.620124093987388</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.890904440514901</v>
@@ -22823,7 +22823,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.649713347689356</v>
+        <v>1.620018211358064</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.211837560416975</v>
@@ -22912,7 +22912,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.652580392402738</v>
+        <v>1.614762527201538</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.141753657278493</v>
@@ -23198,7 +23198,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.359604314647481</v>
+        <v>1.386698731155254</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.578989057195558</v>
@@ -23287,7 +23287,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.398704139977998</v>
+        <v>1.42418124539749</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.276791458545219</v>
@@ -23376,7 +23376,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.402384598380409</v>
+        <v>1.436815571678556</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.51015854755323</v>
@@ -23465,7 +23465,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.390130821478308</v>
+        <v>1.423635154655845</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.315855463083524</v>
@@ -23554,7 +23554,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.385661057822335</v>
+        <v>1.418064307101265</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.454716654767716</v>
@@ -23643,7 +23643,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.396127534893459</v>
+        <v>1.427333872061539</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.557769555974385</v>
@@ -23732,7 +23732,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.40002389834128</v>
+        <v>1.431830052042404</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.355153952074293</v>
@@ -23821,7 +23821,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.399314865690726</v>
+        <v>1.431028750031564</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.522108526015411</v>
@@ -23910,7 +23910,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.36852956299814</v>
+        <v>1.395483268559542</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.60228166151962</v>
@@ -23999,7 +23999,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.378129788655696</v>
+        <v>1.402038370965665</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.405456141309389</v>
@@ -24088,7 +24088,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.398662993645448</v>
+        <v>1.431372171921125</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.525991171126513</v>
@@ -24177,7 +24177,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.404172666213803</v>
+        <v>1.43926250160467</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.712938701814222</v>
@@ -24266,7 +24266,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.381853385017068</v>
+        <v>1.414763633882121</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.746598056485479</v>
@@ -24355,7 +24355,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.372811911403359</v>
+        <v>1.406092888397283</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.505700194721654</v>
@@ -24444,7 +24444,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.404614718732923</v>
+        <v>1.437951996883643</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.67099534300511</v>
@@ -24533,7 +24533,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.40163360082745</v>
+        <v>1.435496525018222</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.402540119994784</v>
@@ -24622,7 +24622,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.398825379030433</v>
+        <v>1.43481701281779</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.73272912210973</v>
@@ -24711,7 +24711,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.415873177142047</v>
+        <v>1.450234463441768</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.684742293726675</v>
@@ -24800,7 +24800,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.416212406572332</v>
+        <v>1.449347805836621</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.243590571118236</v>
@@ -24889,7 +24889,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.408202834325951</v>
+        <v>1.441336301721901</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.564122223568599</v>
@@ -24978,7 +24978,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.380452677693501</v>
+        <v>1.413961692420581</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.730089254083383</v>
@@ -25067,7 +25067,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.385752585285176</v>
+        <v>1.420788555273244</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.71942026535435</v>
@@ -25156,7 +25156,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.397495841408734</v>
+        <v>1.433360639382977</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.449828063336968</v>
@@ -25245,7 +25245,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.403052444662241</v>
+        <v>1.440920988543734</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.739529099551457</v>
@@ -25334,7 +25334,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.389820383024506</v>
+        <v>1.426890358486534</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.471386484361431</v>
@@ -25423,7 +25423,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.371743626335294</v>
+        <v>1.408378392446357</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.703097705650036</v>
@@ -25512,7 +25512,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.387381438435812</v>
+        <v>1.425191871893928</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.685463978022569</v>
@@ -25601,7 +25601,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.413374843401382</v>
+        <v>1.455130231904914</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.665498810918438</v>
@@ -25690,7 +25690,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.435311522744336</v>
+        <v>1.48003048541092</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.625106200876931</v>
@@ -25779,7 +25779,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.43741752151367</v>
+        <v>1.485176675546716</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.671852082432494</v>
@@ -25868,7 +25868,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.475707469187819</v>
+        <v>1.526617630884159</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.26049794258345</v>
@@ -25957,7 +25957,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.506972574112193</v>
+        <v>1.559294969765334</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.590272670537713</v>
@@ -26046,7 +26046,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.508467387142611</v>
+        <v>1.559622678658694</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.562052578292578</v>
@@ -26135,7 +26135,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.553037964171707</v>
+        <v>1.607924132818232</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.666153247861848</v>
@@ -26224,7 +26224,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.604898753023375</v>
+        <v>1.657383194443391</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.453943139788056</v>
@@ -26313,7 +26313,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.660235767014063</v>
+        <v>1.712111983090954</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.484997180293079</v>
@@ -26402,7 +26402,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.65182224127309</v>
+        <v>1.704083335913477</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.708633026451553</v>
@@ -26491,7 +26491,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.659840303903911</v>
+        <v>1.71187982119767</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.717357538417825</v>
@@ -26580,7 +26580,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.699052510379025</v>
+        <v>1.750139960692227</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.413260489868424</v>
@@ -26669,7 +26669,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.765102529089339</v>
+        <v>1.801211988919449</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.313128729285026</v>
@@ -26758,7 +26758,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.746458932255764</v>
+        <v>1.786392429589926</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.530589296984934</v>
@@ -26847,7 +26847,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.746237513946472</v>
+        <v>1.786521325071554</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.623434019038096</v>
